--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB03AF04-0AB8-4161-B085-A2CDAA52A87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6D067-C093-4559-ABF1-427CFD7B6C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>Klub</t>
   </si>
@@ -230,21 +230,6 @@
     <t>Złoczew</t>
   </si>
   <si>
-    <t>FC Deutschland (Niemcy)</t>
-  </si>
-  <si>
-    <t>FC Eire Division (Irlandia)</t>
-  </si>
-  <si>
-    <t>FC Londyn (Anglia)</t>
-  </si>
-  <si>
-    <t>Fc Oslo (Norwegia)</t>
-  </si>
-  <si>
-    <t>FC Southampton (Anglia)</t>
-  </si>
-  <si>
     <t>Łódź</t>
   </si>
   <si>
@@ -378,13 +363,25 @@
   </si>
   <si>
     <t>Pajęczno (6 000)</t>
+  </si>
+  <si>
+    <t>Niemcy (Emigracja)</t>
+  </si>
+  <si>
+    <t>Irlandia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Anglia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Norwiegia (Emigracja)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +535,16 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -713,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +757,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1073,14 +1083,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1100,7 +1110,7 @@
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1139,7 +1149,7 @@
     </row>
     <row r="5" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1179,7 +1189,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2993,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3021,7 @@
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3031,7 +3041,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3049,8 +3059,8 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
+      <c r="A4" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3070,7 +3080,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3090,7 +3100,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3110,7 +3120,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3130,7 +3140,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3150,7 +3160,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3190,7 +3200,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3210,7 +3220,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3230,7 +3240,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3250,7 +3260,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3270,7 +3280,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3290,7 +3300,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3350,7 +3360,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3370,7 +3380,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3390,7 +3400,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3409,8 +3419,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
+      <c r="A22" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3430,7 +3440,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3450,7 +3460,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3470,7 +3480,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3490,7 +3500,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3510,7 +3520,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3530,7 +3540,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3550,7 +3560,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3570,7 +3580,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3590,7 +3600,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3610,7 +3620,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3630,7 +3640,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3650,7 +3660,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3670,7 +3680,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3690,7 +3700,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3710,7 +3720,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3730,7 +3740,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3750,7 +3760,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3770,7 +3780,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3789,8 +3799,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>90</v>
+      <c r="A41" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3809,8 +3819,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
+      <c r="A42" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3830,7 +3840,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3850,7 +3860,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3870,7 +3880,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3890,7 +3900,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3910,7 +3920,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3930,7 +3940,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3950,7 +3960,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3970,7 +3980,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3990,7 +4000,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4010,7 +4020,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4030,7 +4040,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4050,7 +4060,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4070,7 +4080,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4090,7 +4100,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4110,7 +4120,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4130,7 +4140,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4150,7 +4160,7 @@
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4170,7 +4180,7 @@
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4190,7 +4200,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4210,7 +4220,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4230,7 +4240,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4250,7 +4260,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4270,7 +4280,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4290,7 +4300,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4310,7 +4320,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4330,7 +4340,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4350,7 +4360,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4370,7 +4380,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4390,7 +4400,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4410,7 +4420,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4430,7 +4440,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4450,7 +4460,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4470,7 +4480,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4490,7 +4500,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4510,7 +4520,7 @@
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4530,7 +4540,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4550,7 +4560,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4570,7 +4580,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4590,7 +4600,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4610,7 +4620,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4630,7 +4640,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4650,7 +4660,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4669,9 +4679,6 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5131,8 +5138,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A2:A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A84">
+    <sortCondition ref="A6:A84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5154,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5181,7 +5188,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5200,7 +5207,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5220,7 +5227,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5240,7 +5247,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5260,7 +5267,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5280,7 +5287,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5320,7 +5327,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5340,7 +5347,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7097,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7134,7 +7141,7 @@
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="12">
         <f>COUNTA('ŁKS Ł.'!A:A) - 1</f>
@@ -7144,22 +7151,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6">
         <v>75</v>
@@ -7173,7 +7180,7 @@
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTA('GKS B.'!A:A) - 1</f>
@@ -7183,10 +7190,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6D067-C093-4559-ABF1-427CFD7B6C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9255454-4446-47E3-9863-F830635E9C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>Klub</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>Norwiegia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Koło (Wielkopolskie)</t>
+  </si>
+  <si>
+    <t>Wielkopolska (Region)</t>
+  </si>
+  <si>
+    <t>Świętokrzyskie (Województwo)</t>
   </si>
 </sst>
 </file>
@@ -3003,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3509,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3520,7 +3529,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3540,7 +3549,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3560,7 +3569,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3580,7 +3589,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3600,7 +3609,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3620,7 +3629,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3640,7 +3649,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3660,7 +3669,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3680,7 +3689,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3700,7 +3709,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3720,7 +3729,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3740,7 +3749,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3760,7 +3769,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3780,7 +3789,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3799,8 +3808,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3820,7 +3829,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3839,8 +3848,8 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
+      <c r="A43" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3860,7 +3869,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3880,7 +3889,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3900,7 +3909,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3920,7 +3929,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3940,7 +3949,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3960,7 +3969,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3980,7 +3989,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4000,7 +4009,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4020,7 +4029,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4040,7 +4049,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4060,7 +4069,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4080,7 +4089,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4100,7 +4109,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4120,7 +4129,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4140,7 +4149,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4160,7 +4169,7 @@
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4180,7 +4189,7 @@
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4200,7 +4209,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4220,7 +4229,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4240,7 +4249,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4260,7 +4269,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4280,7 +4289,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4300,7 +4309,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4320,7 +4329,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4340,7 +4349,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4360,7 +4369,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4380,7 +4389,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4400,7 +4409,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4420,7 +4429,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4440,7 +4449,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4460,7 +4469,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4479,8 +4488,8 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>57</v>
+      <c r="A75" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4500,7 +4509,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4520,7 +4529,7 @@
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4540,7 +4549,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4560,7 +4569,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4580,7 +4589,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4600,7 +4609,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4620,7 +4629,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4640,7 +4649,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4660,7 +4669,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4679,6 +4688,9 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4696,6 +4708,9 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4713,6 +4728,9 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -5138,8 +5156,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A84">
-    <sortCondition ref="A6:A84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
+    <sortCondition ref="A37:A87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7105,7 +7123,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7166,10 +7184,10 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9255454-4446-47E3-9863-F830635E9C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53A45F-099D-4CC7-BCDA-2657616AFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Klub</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Świętokrzyskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Toruń (Kujawsko-Pomorskie)</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,7 +4332,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4349,7 +4352,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4429,7 +4432,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4469,7 +4472,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4488,8 +4491,8 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>113</v>
+      <c r="A75" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4528,8 +4531,8 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>56</v>
+      <c r="A77" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4589,7 +4592,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4649,7 +4652,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4689,7 +4692,7 @@
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4729,7 +4732,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4748,6 +4751,9 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -5156,8 +5162,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
-    <sortCondition ref="A37:A87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A88">
+    <sortCondition ref="A71:A88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7122,7 +7128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7184,10 +7190,10 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53A45F-099D-4CC7-BCDA-2657616AFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E63E48-2087-4900-85CE-A10500326693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>Klub</t>
   </si>
@@ -380,13 +380,22 @@
     <t>Koło (Wielkopolskie)</t>
   </si>
   <si>
-    <t>Wielkopolska (Region)</t>
-  </si>
-  <si>
-    <t>Świętokrzyskie (Województwo)</t>
-  </si>
-  <si>
     <t>Toruń (Kujawsko-Pomorskie)</t>
+  </si>
+  <si>
+    <t>Konin (Wielkopolskie)</t>
+  </si>
+  <si>
+    <t>Wałcz (Zachodniopomorskie)</t>
+  </si>
+  <si>
+    <t>Wronki (Wielkopolskie)</t>
+  </si>
+  <si>
+    <t>Dąbie (Wielkopolskie)</t>
+  </si>
+  <si>
+    <t>Bielsk Podlaski (Podlaskie)</t>
   </si>
 </sst>
 </file>
@@ -3015,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3161,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3172,7 +3181,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3192,7 +3201,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3212,7 +3221,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3232,7 +3241,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3252,7 +3261,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3272,7 +3281,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3292,7 +3301,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3312,7 +3321,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3332,7 +3341,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3352,7 +3361,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3372,7 +3381,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3392,7 +3401,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3412,7 +3421,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3431,8 +3440,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>109</v>
+      <c r="A22" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3452,7 +3461,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3471,8 +3480,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>77</v>
+      <c r="A24" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3492,7 +3501,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3512,7 +3521,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3532,7 +3541,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3552,7 +3561,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3572,7 +3581,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3592,7 +3601,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3612,7 +3621,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3632,7 +3641,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3652,7 +3661,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3692,7 +3701,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3712,7 +3721,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3732,7 +3741,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3752,7 +3761,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3772,7 +3781,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3792,7 +3801,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3812,7 +3821,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3831,8 +3840,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>108</v>
+      <c r="A42" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3851,8 +3860,8 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>111</v>
+      <c r="A43" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3872,7 +3881,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3891,8 +3900,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>80</v>
+      <c r="A45" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3911,8 +3920,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>34</v>
+      <c r="A46" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3932,7 +3941,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3952,7 +3961,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3972,7 +3981,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3992,7 +4001,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4012,7 +4021,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4032,7 +4041,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4052,7 +4061,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4072,7 +4081,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4092,7 +4101,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4112,7 +4121,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4132,7 +4141,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4152,7 +4161,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4172,7 +4181,7 @@
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4192,7 +4201,7 @@
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4212,7 +4221,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4232,7 +4241,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4252,7 +4261,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4272,7 +4281,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4292,7 +4301,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4312,7 +4321,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4332,7 +4341,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4352,7 +4361,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4372,7 +4381,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4392,7 +4401,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4412,7 +4421,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4432,7 +4441,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4452,7 +4461,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4472,7 +4481,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4492,7 +4501,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4512,7 +4521,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4531,8 +4540,8 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>113</v>
+      <c r="A77" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4552,7 +4561,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4572,7 +4581,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4592,7 +4601,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4612,7 +4621,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4632,7 +4641,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4652,7 +4661,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4672,7 +4681,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4692,7 +4701,7 @@
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4712,7 +4721,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4732,7 +4741,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4752,7 +4761,7 @@
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4771,6 +4780,9 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4788,6 +4800,9 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4805,6 +4820,9 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -5162,8 +5180,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A88">
-    <sortCondition ref="A71:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A91">
+    <sortCondition ref="A9:A91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7128,7 +7146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7190,10 +7208,10 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E63E48-2087-4900-85CE-A10500326693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6238BD07-A207-4907-B806-BFB451C6365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
     <sheet name="Widzew Ł." sheetId="24" r:id="rId2"/>
     <sheet name="GKS B." sheetId="25" r:id="rId3"/>
-    <sheet name="Stats" sheetId="16" r:id="rId4"/>
+    <sheet name="RKS R." sheetId="26" r:id="rId4"/>
+    <sheet name="Stats" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>Klub</t>
   </si>
@@ -396,6 +397,30 @@
   </si>
   <si>
     <t>Bielsk Podlaski (Podlaskie)</t>
+  </si>
+  <si>
+    <t>Miasta - RKS R.</t>
+  </si>
+  <si>
+    <t>Dobryszyce</t>
+  </si>
+  <si>
+    <t>Gomunice</t>
+  </si>
+  <si>
+    <t>RKS R.</t>
+  </si>
+  <si>
+    <t>Ładzice</t>
+  </si>
+  <si>
+    <t>Gidle</t>
+  </si>
+  <si>
+    <t>Radomsko (43 000)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -741,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +805,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1128,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1144,7 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3"/>
@@ -1130,7 +1164,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="3"/>
@@ -1149,7 +1183,7 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3"/>
@@ -1169,7 +1203,7 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="3"/>
@@ -1189,7 +1223,7 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3"/>
@@ -1209,7 +1243,7 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="3"/>
@@ -1229,7 +1263,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3"/>
@@ -1249,7 +1283,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3"/>
@@ -1269,7 +1303,7 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="3"/>
@@ -1289,7 +1323,7 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3"/>
@@ -1309,7 +1343,7 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="3"/>
@@ -1329,7 +1363,7 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
@@ -3024,7 +3058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -7143,11 +7177,1950 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC010F33-5353-4F4B-93E0-7B3BC8232F86}">
+  <dimension ref="A1:P111"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+    </row>
+    <row r="109" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+    </row>
+    <row r="111" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7182,14 +9155,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="12">
         <f>COUNTA('ŁKS Ł.'!A:A) - 1</f>
         <v>12</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -7211,7 +9184,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -7224,21 +9197,38 @@
       <c r="A4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <f>COUNTA('GKS B.'!A:A) - 1</f>
         <v>10</v>
       </c>
       <c r="C4" s="12">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="11">
+        <f>COUNTA('RKS R.'!A:A) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6238BD07-A207-4907-B806-BFB451C6365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0916DC0-36CB-42F3-850C-6007F7D1A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
   <si>
     <t>Klub</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Koło (Wielkopolskie)</t>
   </si>
   <si>
-    <t>Toruń (Kujawsko-Pomorskie)</t>
-  </si>
-  <si>
     <t>Konin (Wielkopolskie)</t>
   </si>
   <si>
@@ -421,6 +418,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Śląskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Opolskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Dolnośląskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Małpoloskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Podkarpackie (Województwo)</t>
+  </si>
+  <si>
+    <t>Pomorskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Kujawsko-Pomorskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Warmińsko-Mazurskie (Województwo)</t>
   </si>
 </sst>
 </file>
@@ -766,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3058,13 +3076,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
@@ -3195,7 +3213,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3355,7 +3373,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3394,8 +3412,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
+      <c r="A18" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3415,7 +3433,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3435,7 +3453,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3455,7 +3473,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3475,7 +3493,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3495,7 +3513,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3514,8 +3532,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>109</v>
+      <c r="A24" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3534,8 +3552,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3555,7 +3573,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3595,7 +3613,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3615,7 +3633,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3635,7 +3653,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3655,7 +3673,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3675,7 +3693,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3695,7 +3713,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3735,7 +3753,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3755,7 +3773,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3774,8 +3792,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
+      <c r="A37" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3795,7 +3813,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3815,7 +3833,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3835,7 +3853,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3855,7 +3873,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3875,7 +3893,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3895,7 +3913,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3915,7 +3933,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3934,8 +3952,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>108</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3954,8 +3972,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>111</v>
+      <c r="A46" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3975,7 +3993,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3994,8 +4012,8 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>80</v>
+      <c r="A48" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4014,8 +4032,8 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
+      <c r="A49" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4035,7 +4053,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4055,7 +4073,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4075,7 +4093,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4094,8 +4112,8 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
+      <c r="A53" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4115,7 +4133,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4135,7 +4153,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4155,7 +4173,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4175,7 +4193,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4195,7 +4213,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4214,8 +4232,8 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>44</v>
+      <c r="A59" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4234,8 +4252,8 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>43</v>
+      <c r="A60" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4255,7 +4273,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4275,7 +4293,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4295,7 +4313,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4315,7 +4333,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4355,7 +4373,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4375,7 +4393,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4395,7 +4413,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4415,7 +4433,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4435,7 +4453,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4455,7 +4473,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4475,7 +4493,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4495,7 +4513,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4515,7 +4533,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4535,7 +4553,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4555,7 +4573,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4574,8 +4592,8 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>71</v>
+      <c r="A77" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4595,7 +4613,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4615,7 +4633,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4635,7 +4653,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4655,7 +4673,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4675,7 +4693,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4714,8 +4732,8 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>116</v>
+      <c r="A84" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4735,7 +4753,7 @@
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4755,7 +4773,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4775,7 +4793,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4795,7 +4813,7 @@
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4815,7 +4833,7 @@
     </row>
     <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4835,7 +4853,7 @@
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4855,7 +4873,7 @@
     </row>
     <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4874,6 +4892,9 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4891,6 +4912,9 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4908,6 +4932,9 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4925,6 +4952,9 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4942,6 +4972,9 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4958,7 +4991,10 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4975,7 +5011,10 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4992,7 +5031,10 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -5009,7 +5051,7 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -5026,7 +5068,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -5043,7 +5085,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -5060,7 +5102,7 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -5077,7 +5119,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -5094,7 +5136,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -5111,7 +5153,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -5128,7 +5170,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -5145,7 +5187,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -5162,7 +5204,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -5179,7 +5221,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -5196,7 +5238,7 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row r="111" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -5214,8 +5256,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A91">
-    <sortCondition ref="A9:A91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A99">
+    <sortCondition ref="A66:A99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7191,14 +7233,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7218,7 +7260,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7237,7 +7279,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7257,7 +7299,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9119,8 +9161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9155,7 +9197,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="12">
@@ -9163,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>103</v>
@@ -9181,10 +9223,10 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -9213,7 +9255,7 @@
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTA('RKS R.'!A:A) - 1</f>
@@ -9223,10 +9265,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Distribution of fans in Lodz Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lodz Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lodz-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0916DC0-36CB-42F3-850C-6007F7D1A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373E229-67B4-48BD-9060-47A4E4285A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ŁKS Ł." sheetId="23" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>Klub</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>Warmińsko-Mazurskie (Województwo)</t>
+  </si>
+  <si>
+    <t>Siedlce (Mazowieckie)</t>
+  </si>
+  <si>
+    <t>Pruszków (Mazowieckie)</t>
+  </si>
+  <si>
+    <t>Grodzisk Mazowiecki (Mazowieckie)</t>
   </si>
 </sst>
 </file>
@@ -3076,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3242,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3253,7 +3262,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3273,7 +3282,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3293,7 +3302,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3313,7 +3322,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3333,7 +3342,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3353,7 +3362,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3373,7 +3382,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3393,7 +3402,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3412,8 +3421,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>128</v>
+      <c r="A18" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3433,7 +3442,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3453,7 +3462,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3472,8 +3481,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
+      <c r="A21" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3493,7 +3502,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3513,7 +3522,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3533,7 +3542,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3552,8 +3561,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>109</v>
+      <c r="A25" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3573,7 +3582,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3593,7 +3602,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3612,8 +3621,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
+      <c r="A28" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3633,7 +3642,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3653,7 +3662,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3673,7 +3682,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3693,7 +3702,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3713,7 +3722,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3733,7 +3742,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3753,7 +3762,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3773,7 +3782,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3792,8 +3801,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>132</v>
+      <c r="A37" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3813,7 +3822,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3833,7 +3842,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3852,8 +3861,8 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>29</v>
+      <c r="A40" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3873,7 +3882,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3893,7 +3902,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3913,7 +3922,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3933,7 +3942,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3953,7 +3962,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3973,7 +3982,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3993,7 +4002,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4012,8 +4021,8 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>108</v>
+      <c r="A48" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4032,8 +4041,8 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>111</v>
+      <c r="A49" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4053,7 +4062,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4072,8 +4081,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>80</v>
+      <c r="A51" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4092,8 +4101,8 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
+      <c r="A52" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4112,8 +4121,8 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>127</v>
+      <c r="A53" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4133,7 +4142,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4153,7 +4162,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4172,8 +4181,8 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>82</v>
+      <c r="A56" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4193,7 +4202,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4213,7 +4222,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4232,8 +4241,8 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>130</v>
+      <c r="A59" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4252,8 +4261,8 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>131</v>
+      <c r="A60" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4273,7 +4282,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4292,8 +4301,8 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>41</v>
+      <c r="A62" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4312,8 +4321,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>40</v>
+      <c r="A63" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4333,7 +4342,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4353,7 +4362,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4373,7 +4382,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4393,7 +4402,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4413,7 +4422,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4433,7 +4442,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4453,7 +4462,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4473,7 +4482,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4493,7 +4502,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4513,7 +4522,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4533,7 +4542,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4553,7 +4562,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4573,7 +4582,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4592,8 +4601,8 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>126</v>
+      <c r="A77" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4613,7 +4622,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4633,7 +4642,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4652,8 +4661,8 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>52</v>
+      <c r="A80" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4673,7 +4682,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4693,7 +4702,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4713,7 +4722,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4732,8 +4741,8 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>133</v>
+      <c r="A84" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4753,7 +4762,7 @@
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4773,7 +4782,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4792,8 +4801,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>55</v>
+      <c r="A87" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4813,7 +4822,7 @@
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4833,7 +4842,7 @@
     </row>
     <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4853,7 +4862,7 @@
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4873,7 +4882,7 @@
     </row>
     <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4893,7 +4902,7 @@
     </row>
     <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4913,7 +4922,7 @@
     </row>
     <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4933,7 +4942,7 @@
     </row>
     <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4953,7 +4962,7 @@
     </row>
     <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4973,7 +4982,7 @@
     </row>
     <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4993,7 +5002,7 @@
     </row>
     <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5013,7 +5022,7 @@
     </row>
     <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5033,7 +5042,7 @@
     </row>
     <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5052,6 +5061,9 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -5069,6 +5081,9 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -5086,6 +5101,9 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -5256,8 +5274,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A99">
-    <sortCondition ref="A66:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A102">
+    <sortCondition ref="A69:A102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -9161,8 +9179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9223,10 +9241,10 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA('Widzew Ł.'!A:A) - 1</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
